--- a/data/income_statement/2digits/size/70_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/70_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>70-Activities of head offices; management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>70-Activities of head offices; management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1457 +841,1647 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>393367.09561</v>
+        <v>608918.21118</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>438434.85993</v>
+        <v>626668.3362799999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>751123.0220999999</v>
+        <v>960009.50486</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1040117.14628</v>
+        <v>1261664.81017</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1228823.61286</v>
+        <v>1566116.30011</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1530638.64626</v>
+        <v>1908714.04356</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1745675.22429</v>
+        <v>2184591.53554</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2260569.91266</v>
+        <v>2729648.8734</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2748900.15894</v>
+        <v>3244889.97784</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3551689.90646</v>
+        <v>4592639.276819999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3909605.04053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5202150.67665</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6756627.869</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>329659.39249</v>
+        <v>504738.05085</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>370446.44308</v>
+        <v>522873.92915</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>619241.6037100001</v>
+        <v>787813.7791800001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>881599.33056</v>
+        <v>1039181.74211</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1042363.79393</v>
+        <v>1312245.44877</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1207872.35389</v>
+        <v>1474021.24788</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1485687.74837</v>
+        <v>1771890.13396</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1927882.97911</v>
+        <v>2234979.89814</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2258380.34966</v>
+        <v>2597728.02389</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2913936.31468</v>
+        <v>3731315.28957</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3197776.12008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4138153.52081</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5393936.338</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>36711.57312</v>
+        <v>41145.8645</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>49552.41108</v>
+        <v>48619.64864</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>92448.22796999999</v>
+        <v>96008.33352</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>110394.26185</v>
+        <v>120628.73301</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>142851.12089</v>
+        <v>142658.07646</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>258064.94139</v>
+        <v>275108.39585</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>198555.81847</v>
+        <v>238747.88924</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>256182.30342</v>
+        <v>292720.78079</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>401495.01967</v>
+        <v>428659.31257</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>475339.70652</v>
+        <v>503519.91038</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>541788.62788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>575612.2737799999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>876751.852</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>26996.13</v>
+        <v>63034.29583</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>18436.00577</v>
+        <v>55174.75848999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>39433.19042</v>
+        <v>76187.39216</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>48123.55387</v>
+        <v>101854.33505</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>43608.69804</v>
+        <v>111212.77488</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>64701.35098</v>
+        <v>159584.39983</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>61431.65745000001</v>
+        <v>173953.51234</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>76504.63012999999</v>
+        <v>201948.19447</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>89024.78960999999</v>
+        <v>218502.64138</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>162413.88526</v>
+        <v>357804.07687</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>170040.29257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>488384.8820600001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>485939.679</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3021.41711</v>
+        <v>3199.67296</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2610.73327</v>
+        <v>2849.23751</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6546.54549</v>
+        <v>5657.01285</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6738.25252</v>
+        <v>7189.50253</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11129.28619</v>
+        <v>10814.0853</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13987.79154</v>
+        <v>14350.03875</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>10978.18788</v>
+        <v>10917.77017</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12402.00072</v>
+        <v>20535.35601</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>15470.21064</v>
+        <v>17648.37852</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>71383.00498</v>
+        <v>73380.62599000002</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>51402.97979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>88290.57964</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>100421.662</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2641.75776</v>
+        <v>2817.74049</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2343.02697</v>
+        <v>2574.51618</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5463.23698</v>
+        <v>4461.71317</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4733.14884</v>
+        <v>5173.657990000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9214.527980000001</v>
+        <v>9674.759459999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11741.75286</v>
+        <v>12355.88239</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8904.837369999999</v>
+        <v>8683.24591</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10178.47347</v>
+        <v>17766.78959</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11769.84384</v>
+        <v>13703.36288</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>66722.44748999999</v>
+        <v>67237.98246000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>39889.70871</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>44883.68977</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>92214.74099999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>335.47483</v>
+        <v>335.47484</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>119.85594</v>
+        <v>126.87097</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>902.1113399999999</v>
+        <v>1014.26283</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1770.37364</v>
+        <v>1768.91599</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>639.7102199999999</v>
+        <v>654.02825</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1524.32799</v>
+        <v>1280.40151</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1384.98821</v>
+        <v>1604.0176</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1736.41344</v>
+        <v>1426.97653</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1304.20377</v>
+        <v>1324.44472</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2504.91658</v>
+        <v>2204.3953</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7996.09751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7790.37534</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3165.601</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>44.18452000000001</v>
+        <v>46.45763</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>147.85036</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>181.19717</v>
+        <v>181.03685</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>234.73004</v>
+        <v>246.92855</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1275.04799</v>
+        <v>485.29759</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>721.71069</v>
+        <v>713.75485</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>688.3622999999999</v>
+        <v>630.50666</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>487.1138100000001</v>
+        <v>1341.58989</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2396.16303</v>
+        <v>2620.57092</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2155.64091</v>
+        <v>3938.24823</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3517.17357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>35616.51453</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5041.32</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>390345.6785</v>
+        <v>605718.53822</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>435824.12666</v>
+        <v>623819.0987699999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>744576.47661</v>
+        <v>954352.49201</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1033378.89376</v>
+        <v>1254475.30764</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1217694.32667</v>
+        <v>1555302.21481</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1516650.85472</v>
+        <v>1894364.00481</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1734697.03641</v>
+        <v>2173673.76537</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2248167.91194</v>
+        <v>2709113.51739</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2733429.9483</v>
+        <v>3227241.59932</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3480306.90148</v>
+        <v>4519258.65083</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3858202.06074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5113860.097010001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6656206.207</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>243142.38456</v>
+        <v>330913.75911</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>247207.50797</v>
+        <v>308671.04481</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>476447.03419</v>
+        <v>546644.58302</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>712598.59626</v>
+        <v>784569.68051</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>771127.1995699999</v>
+        <v>905747.35692</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>925647.9158899999</v>
+        <v>1034638.5764</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1090589.87378</v>
+        <v>1249974.65087</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1467128.32899</v>
+        <v>1625298.82741</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1829257.54482</v>
+        <v>1988944.0869</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2167788.84714</v>
+        <v>2482685.12434</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2419799.02106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2848442.63444</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4201849.448</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5428.51378</v>
+        <v>4846.18096</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>9158.96444</v>
+        <v>8800.359769999999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9782.26274</v>
+        <v>14494.98338</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>15698.58619</v>
+        <v>15817.41095</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4294.10964</v>
+        <v>5543.88551</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9817.18217</v>
+        <v>9385.416810000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16846.58956</v>
+        <v>22244.18617</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>47542.44033</v>
+        <v>56598.27219</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>62259.10587</v>
+        <v>71939.83392999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>119425.5583</v>
+        <v>127349.47669</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>48569.27955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>44631.66931</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>162940.982</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>30527.28551</v>
+        <v>38283.352</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>43709.76269</v>
+        <v>46685.88394</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>92451.86328000001</v>
+        <v>99718.40787000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>238909.76587</v>
+        <v>243240.01285</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>151563.49251</v>
+        <v>147233.43384</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>184518.43133</v>
+        <v>195547.78441</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>225284.0533</v>
+        <v>238394.2255</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>345396.51674</v>
+        <v>359915.1069600001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>446088.62309</v>
+        <v>489615.39551</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>473078.29268</v>
+        <v>548713.22692</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>502073.99259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>580109.9640800001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1489877.28</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>198304.08416</v>
+        <v>276964.2436</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>191095.31337</v>
+        <v>249463.83627</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>367559.63979</v>
+        <v>419581.59953</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>440709.2656</v>
+        <v>505227.2152</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>576007.97147</v>
+        <v>703941.7083200001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>724630.83115</v>
+        <v>814801.7618999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>843808.4317599999</v>
+        <v>979475.95702</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1067999.17891</v>
+        <v>1196896.48459</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1315521.42568</v>
+        <v>1413716.87551</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1545435.18661</v>
+        <v>1766075.21911</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1834190.54098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2157007.15144</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2459173.544</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8882.501109999999</v>
+        <v>10819.98255</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3243.46747</v>
+        <v>3720.96483</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6653.26838</v>
+        <v>12849.59224</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>17280.9786</v>
+        <v>20285.04151</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>39261.62595</v>
+        <v>49028.32925</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6681.471239999999</v>
+        <v>14903.61328</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4650.79916</v>
+        <v>9860.28218</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6190.19301</v>
+        <v>11888.96367</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5388.390179999999</v>
+        <v>13671.98195</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>29849.80955</v>
+        <v>40547.20162</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>34965.20794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>66693.84961</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>89857.64200000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>147203.29394</v>
+        <v>274804.77911</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>188616.61869</v>
+        <v>315148.05396</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>268129.44242</v>
+        <v>407707.90899</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>320780.2975</v>
+        <v>469905.62713</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>446567.1271</v>
+        <v>649554.85789</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>591002.9388299999</v>
+        <v>859725.4284100001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>644107.16263</v>
+        <v>923699.1145</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>781039.58295</v>
+        <v>1083814.68998</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>904172.40348</v>
+        <v>1238297.51242</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1312518.05434</v>
+        <v>2036573.52649</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1438403.03968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2265417.46257</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2454356.759</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>135151.13045</v>
+        <v>368279.96017</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>156128.26041</v>
+        <v>377331.83939</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>228321.70013</v>
+        <v>516662.5229399999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>271529.98497</v>
+        <v>651588.1631900001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>361340.35683</v>
+        <v>773710.58299</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>491957.93587</v>
+        <v>979823.9685899999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>542073.0758</v>
+        <v>1141426.33817</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>659793.73621</v>
+        <v>1184140.65493</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>748553.83871</v>
+        <v>1310260.26089</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1067406.44787</v>
+        <v>2035751.66302</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1204379.30271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2315903.18661</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2492058.081</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3157.38043</v>
+        <v>3103.88386</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4138.126569999999</v>
+        <v>4727.47352</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>479.8456</v>
+        <v>383.888</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2060.66648</v>
+        <v>1582.28836</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3092.90047</v>
+        <v>2648.46925</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5202.75154</v>
+        <v>5065.44126</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5251.44596</v>
+        <v>6433.10304</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5903.822740000001</v>
+        <v>8026.424109999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7000.883610000001</v>
+        <v>7256.23915</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9582.23034</v>
+        <v>9569.43943</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9440.85009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10602.55027</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13025.06</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15540.40699</v>
+        <v>14618.02397</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>15802.01673</v>
+        <v>18303.83674</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>22941.16368</v>
+        <v>21401.42921</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>35433.0612</v>
+        <v>30436.8635</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>50144.12495</v>
+        <v>42205.44594999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>65948.16411</v>
+        <v>59308.53965999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>58292.45512000001</v>
+        <v>66240.98715999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>75297.26138</v>
+        <v>78337.50654</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>86342.35633</v>
+        <v>89498.30306999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>128268.8503</v>
+        <v>124705.31188</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>144125.58242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>171114.17348</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>156854.676</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>116453.34303</v>
+        <v>350558.0523400001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>136188.11711</v>
+        <v>354300.52913</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>204900.69085</v>
+        <v>494877.20573</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>234036.25729</v>
+        <v>619569.01133</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>308103.33141</v>
+        <v>728856.66779</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>420807.02022</v>
+        <v>915449.9876700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>478529.17472</v>
+        <v>1068752.24797</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>578592.65209</v>
+        <v>1097776.72428</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>655210.5987699999</v>
+        <v>1213505.71867</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>929555.36723</v>
+        <v>1901476.91171</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1050812.8702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2134186.46286</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2322178.345</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>12052.16349</v>
+        <v>-93475.18106</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>32488.35828</v>
+        <v>-62183.78543</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>39807.74229</v>
+        <v>-108954.61395</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>49250.31253</v>
+        <v>-181682.53606</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>85226.77026999999</v>
+        <v>-124155.7251</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>99045.00296000001</v>
+        <v>-120098.54018</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>102034.08683</v>
+        <v>-217727.2236699999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>121245.84674</v>
+        <v>-100325.96495</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>155618.56477</v>
+        <v>-71962.74847000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>245111.60647</v>
+        <v>821.8634700000287</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>234023.73697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-50485.72404000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-37701.322</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>36569.0272</v>
+        <v>1753506.97695</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>30912.56189</v>
+        <v>1741928.46526</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>59626.30361</v>
+        <v>1660156.78481</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>51961.47161</v>
+        <v>2058505.23158</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>91884.31518999999</v>
+        <v>3727606.817</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>110752.40571</v>
+        <v>4110038.143660001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>123147.03015</v>
+        <v>6510090.62878</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>137342.43143</v>
+        <v>6355896.010050001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>164165.61288</v>
+        <v>5629938.237050001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>755578.66561</v>
+        <v>15907456.80092</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>473308.01847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13030493.06061</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>16418803.754</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1813.32509</v>
+        <v>180333.64042</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1352.37692</v>
+        <v>239607.39799</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2481.15658</v>
+        <v>133259.62251</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3112.83282</v>
+        <v>244101.4537</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>6786.06388</v>
+        <v>289983.12415</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>10153.41189</v>
+        <v>926629.1915</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>12278.07657</v>
+        <v>1277837.3265</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15026.66685</v>
+        <v>1081583.2943</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>11540.78818</v>
+        <v>1314087.24315</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>101928.18488</v>
+        <v>2268360.55924</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>73916.42603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1029120.08144</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>347902.908</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>491.0022</v>
+        <v>159785.75588</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1191.13099</v>
+        <v>182541.95988</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1076.00979</v>
+        <v>523689.87156</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>985.2514200000001</v>
+        <v>477903.97276</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>953.8179099999999</v>
+        <v>715238.2781900001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>4703.5138</v>
+        <v>843823.0039299999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>3931.54519</v>
+        <v>1411007.89425</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6723.510510000001</v>
+        <v>1352727.02194</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>11941.79963</v>
+        <v>1389733.3321</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>41825.28104000001</v>
+        <v>2878686.79646</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>32796.73371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5315188.89773</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2711498.548</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4370.613</v>
+        <v>203712.61747</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4547.83371</v>
+        <v>129588.37059</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4709.86357</v>
+        <v>196139.16491</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>6243.611599999999</v>
+        <v>237612.78747</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10572.62495</v>
+        <v>276377.35576</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13664.24587</v>
+        <v>405212.22694</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15677.52561</v>
+        <v>422558.79286</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17555.22328</v>
+        <v>492973.22228</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>19950.62699</v>
+        <v>483587.73218</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55697.24788</v>
+        <v>901949.50387</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>59483.60004999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1115721.86371</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1043551.851</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>252.35223</v>
+        <v>2411.07984</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>399.89636</v>
+        <v>2125.84486</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>676.6849800000001</v>
+        <v>4133.20607</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1360.56698</v>
+        <v>4003.08787</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1318.29443</v>
+        <v>5078.94516</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1430.37297</v>
+        <v>7786.759599999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>393.51356</v>
+        <v>10905.5312</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>453.86051</v>
+        <v>9065.711940000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1165.11126</v>
+        <v>14514.94732</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3220.08559</v>
+        <v>20436.70021</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>721.9813399999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>17230.91202</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7470.517</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4803.0405</v>
+        <v>184079.55414</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>4845.809740000001</v>
+        <v>164416.34487</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>52.04234</v>
+        <v>243.99031</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>91.75649</v>
+        <v>3798.21638</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>532.58525</v>
+        <v>881940.90676</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1296.52555</v>
+        <v>9772.255220000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>942.46653</v>
+        <v>880570.69888</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>975.73374</v>
+        <v>735954.1417800001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>25384.70173</v>
+        <v>4731.13033</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16000.61432</v>
+        <v>18414.16976</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>22181.16118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22388.65146</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9719.620000000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1655.07295</v>
+        <v>82073.77178</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>464.79007</v>
+        <v>493470.13566</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2403.31127</v>
+        <v>74761.03861</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2719.39591</v>
+        <v>286293.56926</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5662.472870000001</v>
+        <v>315507.37922</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5797.177900000001</v>
+        <v>192945.05747</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5708.9009</v>
+        <v>47005.29712999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3935.96605</v>
+        <v>36239.98557</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2126.90828</v>
+        <v>109110.74234</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>26185.3931</v>
+        <v>331057.226</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>11907.7718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>403821.88824</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>690683.829</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11586.59075</v>
+        <v>845414.24245</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>8809.68165</v>
+        <v>435063.23545</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>21426.7863</v>
+        <v>541954.35262</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11340.19093</v>
+        <v>694032.51119</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>41457.95288</v>
+        <v>1055399.55898</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>46297.9195</v>
+        <v>1465496.57319</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>67251.85370000001</v>
+        <v>2256123.29711</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>69584.17440999999</v>
+        <v>2386102.66283</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>71235.08560999999</v>
+        <v>2105057.44318</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>469613.81021</v>
+        <v>9004723.88092</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>216647.72237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4725463.148510001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11044902.653</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>348.931</v>
+        <v>22.04625</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>215.3904</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>328.60419</v>
+        <v>206.32467</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>266.6962</v>
+        <v>209.64062</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>197.443</v>
+        <v>274.44998</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>189.71867</v>
+        <v>7270.82766</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>674.1197</v>
+        <v>533.48696</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>405.55827</v>
+        <v>386.83922</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>1642.91182</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>33.17164</v>
+        <v>10763.4026</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>25535.1311</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>37096.315</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>0</v>
+        <v>374.95339</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>3.04273</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>43.59349</v>
+        <v>55.42593</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>11.5456</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1.49502</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>13.66484</v>
+        <v>10.4127</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>23.30952</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>4.0264</v>
+        <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>298.06167</v>
+        <v>165.15858</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>104.56433</v>
+        <v>103.22683</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>5.41773</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.39</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>2.179</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>11248.09948</v>
+        <v>95299.31533</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9082.60932</v>
+        <v>95112.13323000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>26428.2511</v>
+        <v>185713.78762</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>25829.62366</v>
+        <v>110538.44673</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>24401.565</v>
+        <v>187806.8188</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>27205.85472</v>
+        <v>251091.83545</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>16265.71887</v>
+        <v>203548.30389</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22677.71141</v>
+        <v>260863.13019</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>20522.52953</v>
+        <v>207307.59605</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>40970.31262</v>
+        <v>472961.33503</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>55647.20426000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>376022.0964</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>525975.334</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>15545.98469</v>
+        <v>921989.81588</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>13926.33713</v>
+        <v>489687.00807</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>40308.3475</v>
+        <v>746997.1154499999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>22815.92384</v>
+        <v>692906.40272</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>54214.52329999999</v>
+        <v>1252174.15568</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>61795.09987000001</v>
+        <v>1938271.47555</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>80628.36508</v>
+        <v>3541167.82848</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>112638.78001</v>
+        <v>2680266.72147</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>103121.19394</v>
+        <v>2191928.79367</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>458307.7411</v>
+        <v>10049189.45262</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>236702.99239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5417925.935610001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14233161.016</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>47.0064</v>
+        <v>263.32168</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>228.02855</v>
+        <v>247.08935</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>88.49041</v>
+        <v>1112.72196</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>261.58186</v>
+        <v>1767.48151</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>516.9725699999999</v>
+        <v>1627.55545</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1722.78222</v>
+        <v>1902.61324</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>372.06069</v>
+        <v>906.5116400000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>523.0642800000001</v>
+        <v>1354.88756</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2308.96412</v>
+        <v>2911.63992</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>19232.08376</v>
+        <v>25000.02799</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6133.2052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9120.57423</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11410.137</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1715.66069</v>
+        <v>25280.91196</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1846.96326</v>
+        <v>2158.2951</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1526.16077</v>
+        <v>2195.04794</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1342.13375</v>
+        <v>3441.92436</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1459.23971</v>
+        <v>8728.33144</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2796.67321</v>
+        <v>4865.67869</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3521.18275</v>
+        <v>7784.056710000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>41063.11786</v>
+        <v>6987.59114</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>17639.67245</v>
+        <v>7362.346140000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>22201.51362</v>
+        <v>148893.81609</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>23458.93128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>12566.52327</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8694.287</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>2367.53137</v>
+        <v>27733.63008</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>859.95578</v>
+        <v>20317.71923</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>381.5247699999999</v>
+        <v>59959.43270999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1514.47957</v>
+        <v>34518.37631</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3307.65408</v>
+        <v>12088.64629</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>5224.8949</v>
+        <v>68025.99034999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6332.89988</v>
+        <v>24664.80559</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1790.35517</v>
+        <v>12859.33951</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12185.47819</v>
+        <v>151060.72362</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10700.63966</v>
+        <v>128962.03619</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5631.68907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>167333.31611</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>194241.11</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>10687.14908</v>
+        <v>833018.2583</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8825.25699</v>
+        <v>445169.7081</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>32966.92733</v>
+        <v>644255.70322</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11378.00757</v>
+        <v>519824.52358</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>40545.86409</v>
+        <v>1183404.9059</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>44188.86138</v>
+        <v>1757177.3183</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>56540.17731</v>
+        <v>3422141.7911</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>66235.53632</v>
+        <v>2477463.32366</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>64460.99140000001</v>
+        <v>1939903.3986</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>401792.24884</v>
+        <v>9182933.998049999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>178736.34884</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5129591.24504</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13479152.596</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>288.857</v>
+        <v>3.74541</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>220.20289</v>
+        <v>0.93545</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>231.403</v>
+        <v>890.45064</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>232.42019</v>
+        <v>28.74091</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>202.37067</v>
+        <v>1412.05262</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>373.5218399999999</v>
+        <v>6147.768069999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>280.76411</v>
+        <v>6073.39809</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>93.45993</v>
+        <v>484.45481</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>539.46838</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0</v>
+        <v>1491.26997</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>37.68202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>8802.152099999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>22109.902</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>25.84517</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>14.86133</v>
+        <v>2.71041</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>136.09723</v>
+        <v>134.72818</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>10.572</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>394.314</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>439.78015</v>
+        <v>35689.94845</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1945.92966</v>
+        <v>21793.26084</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5113.841219999999</v>
+        <v>38583.75898</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8087.3009</v>
+        <v>133325.35605</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8156.57701</v>
+        <v>44886.81881</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7473.50499</v>
+        <v>100149.39649</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13581.28034</v>
+        <v>79597.26534999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2933.24645</v>
+        <v>181117.12479</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6389.99055</v>
+        <v>90016.48883</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4370.68322</v>
+        <v>561897.7323299999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>22705.13598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>90512.12485999998</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>517158.67</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>8976.271359999999</v>
+        <v>192033.01407</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5197.64705</v>
+        <v>149363.86235</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9429.228720000001</v>
+        <v>558168.9439600001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>10608.49552</v>
+        <v>441588.0623</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14651.68771</v>
+        <v>655724.2339700001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>17107.60221</v>
+        <v>1100621.69424</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>21941.27305</v>
+        <v>1623510.76965</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>31433.03963</v>
+        <v>2026421.30649</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>38534.29497</v>
+        <v>1791554.81626</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>137788.04083</v>
+        <v>4752479.98478</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>137661.64214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2665641.52176</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4510303.576</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7413.20733</v>
+        <v>121332.33788</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4878.18057</v>
+        <v>106216.58676</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9045.452600000001</v>
+        <v>300018.94343</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10095.22412</v>
+        <v>304580.95552</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>13097.89989</v>
+        <v>502102.22084</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15751.60016</v>
+        <v>814025.9365600001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>20546.12621</v>
+        <v>1096306.5738</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>29448.63906</v>
+        <v>1534833.46603</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>36529.08286</v>
+        <v>1139711.82435</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>133128.15324</v>
+        <v>3331076.09073</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>131334.2916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2285965.70231</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3198916.088</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1563.06403</v>
+        <v>70700.67619</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>319.46648</v>
+        <v>43147.27559</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>383.77612</v>
+        <v>258150.00053</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>513.2714</v>
+        <v>137007.10678</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1553.78782</v>
+        <v>153622.01313</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1356.00205</v>
+        <v>286595.75768</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1395.14684</v>
+        <v>527204.19585</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1984.40057</v>
+        <v>491587.84046</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2005.21211</v>
+        <v>651842.99191</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>4659.88759</v>
+        <v>1421403.89405</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6327.35054</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>379675.81945</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1311387.488</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>24098.93464</v>
+        <v>546008.96594</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>44276.93599000001</v>
+        <v>1040693.80941</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>49696.46968</v>
+        <v>246036.11145</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>67787.36478</v>
+        <v>742328.2304999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>108244.87445</v>
+        <v>1695552.70225</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>130894.70659</v>
+        <v>951046.43369</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>122611.47885</v>
+        <v>1127684.80698</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>114516.45853</v>
+        <v>1548882.01714</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>178128.68874</v>
+        <v>1574491.87865</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>404594.49015</v>
+        <v>1106609.22699</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>332967.1209099999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4896439.879199999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2362362.16</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7872.507</v>
+        <v>61636.81707</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5925.75504</v>
+        <v>238444.57587</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>7151.1693</v>
+        <v>143391.89737</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7144.04008</v>
+        <v>466520.19835</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>16466.84439</v>
+        <v>141539.3007</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>22730.86671</v>
+        <v>275061.56511</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>26941.84253</v>
+        <v>1384546.73044</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>31050.84254</v>
+        <v>931745.3055199999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>30222.45688</v>
+        <v>416863.4674199999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>61035.23673999999</v>
+        <v>948777.1706300001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>83182.20250999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1722570.453</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1188072.624</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>138.49282</v>
+        <v>2682.46114</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>83.72217999999999</v>
+        <v>2199.49211</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>762.6331</v>
+        <v>1114.35473</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>51.01309000000001</v>
+        <v>1279.88064</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>30.46732</v>
+        <v>331.34486</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>445.09876</v>
+        <v>1785.9041</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>91.82771000000001</v>
+        <v>5296.19253</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>226.81526</v>
+        <v>2501.07091</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>708.65144</v>
+        <v>1343.94419</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>717.84798</v>
+        <v>2298.17517</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>354.32642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4233.65804</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4571.724</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7734.01418</v>
+        <v>58954.35593</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5842.032859999999</v>
+        <v>236245.08376</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6388.5362</v>
+        <v>142277.54264</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7093.02699</v>
+        <v>465240.31771</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>16436.37707</v>
+        <v>141207.95584</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22285.76795</v>
+        <v>273275.66101</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>26850.01482</v>
+        <v>1379250.53791</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>30824.02728</v>
+        <v>929244.23461</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>29513.80544</v>
+        <v>415519.52323</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>60317.38876000001</v>
+        <v>946478.99546</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>82827.87609000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1718336.79496</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1183500.9</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7252.65325</v>
+        <v>60081.81517</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3698.83364</v>
+        <v>81442.27819</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>59558.86964</v>
+        <v>211310.71571</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>9023.634330000001</v>
+        <v>90266.90122</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13244.60373</v>
+        <v>989512.94283</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>63718.13595999999</v>
+        <v>346859.47779</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>34818.14066</v>
+        <v>129029.36809</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>133221.14515</v>
+        <v>432002.10789</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>26563.86392</v>
+        <v>120103.81831</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>127097.69909</v>
+        <v>481320.10022</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>98168.86172999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>318493.71512</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1729275.64</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>748.3253</v>
+        <v>783.07938</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>38.50233</v>
+        <v>267.12533</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>374.2222</v>
+        <v>240.23167</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>527.16088</v>
+        <v>224.82454</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>664.93643</v>
+        <v>86.50383000000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>333.03185</v>
+        <v>217.82483</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2376.74722</v>
+        <v>1675.63646</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>323.28644</v>
+        <v>2.00605</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>306.19397</v>
+        <v>176.80961</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>176.88802</v>
+        <v>169.88313</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>437.88382</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>368.55373</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>158.872</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1274.5388</v>
+        <v>12418.93127</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>444.25346</v>
+        <v>2277.54429</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>460.79361</v>
+        <v>1219.7549</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>267.7603199999999</v>
+        <v>1300.54081</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>253.33311</v>
+        <v>1797.23475</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1723.74896</v>
+        <v>29148.00468</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>986.9118599999999</v>
+        <v>3185.10965</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2134.13426</v>
+        <v>9569.082179999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2937.17979</v>
+        <v>3831.55174</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2291.971849999999</v>
+        <v>5373.3882</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2280.28196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4016.62825</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>50233.525</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5229.789150000001</v>
+        <v>46879.80452000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3216.07785</v>
+        <v>78897.60857000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>58723.85383</v>
+        <v>209850.72914</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8228.71313</v>
+        <v>88741.53587000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>12326.33419</v>
+        <v>987629.20425</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>61661.35515</v>
+        <v>317493.64828</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31454.48158</v>
+        <v>124168.62198</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>130763.72445</v>
+        <v>422431.01966</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>23320.49016</v>
+        <v>116095.45696</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>124628.83922</v>
+        <v>475776.82889</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>95450.69595000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>314108.53314</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1678883.243</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>24718.78839</v>
+        <v>547563.9678400001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>46503.85739</v>
+        <v>1197696.10709</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2711.23066</v>
+        <v>178117.29311</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>65907.77053000001</v>
+        <v>1118581.52763</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>111467.11511</v>
+        <v>847579.06012</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>89907.43734</v>
+        <v>879248.52101</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>114735.18072</v>
+        <v>2383202.16933</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>12346.15592</v>
+        <v>2048625.21477</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>181787.2817</v>
+        <v>1871251.52776</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>338532.0278</v>
+        <v>1574066.2974</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>317980.46169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6300516.61708</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2903565.176</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>7996.86321</v>
+        <v>30021.02388</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9408.144689999999</v>
+        <v>43401.42537</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15766.09346</v>
+        <v>61277.63777</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>17350.05773</v>
+        <v>42199.64636</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>26613.55026</v>
+        <v>122858.20471</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>32784.90864</v>
+        <v>68230.16449000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39933.28168</v>
+        <v>161682.27991</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>46891.01397</v>
+        <v>155155.46705</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>50948.07391000001</v>
+        <v>133531.40663</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>100377.52469</v>
+        <v>239891.11412</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>99215.56405999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>360000.51692</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>655994.458</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>16721.92518</v>
+        <v>517542.94396</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>37095.7127</v>
+        <v>1154294.68172</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-18477.32412</v>
+        <v>116839.65534</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>48557.71279999999</v>
+        <v>1076381.88127</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>84853.56485000001</v>
+        <v>724720.85541</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>57122.5287</v>
+        <v>811018.35652</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>74801.89903999999</v>
+        <v>2221519.88942</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-34544.85805</v>
+        <v>1893469.74772</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>130839.20779</v>
+        <v>1737720.12113</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>238154.50311</v>
+        <v>1334175.18328</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>218764.89763</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5940516.100160001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-3559559.634</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>828</v>
+        <v>661</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>996</v>
+        <v>792</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1211</v>
+        <v>937</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1386</v>
+        <v>1042</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1559</v>
+        <v>1179</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1228</v>
+        <v>963</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1002</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>